--- a/data-generation/ConfigFiles/Config_CLX-MILP.xlsx
+++ b/data-generation/ConfigFiles/Config_CLX-MILP.xlsx
@@ -691,7 +691,7 @@
     <t>OTH</t>
   </si>
   <si>
-    <t>simulations/simu_cloux</t>
+    <t>simulations/simu_cloux/0102_0702-INTE-CLUS</t>
   </si>
 </sst>
 </file>
@@ -845,21 +845,6 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -995,6 +980,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,183 +1389,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="96.21875" style="7" customWidth="1"/>
-    <col min="9" max="1024" width="9.21875" style="7"/>
+    <col min="1" max="1" width="30.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="96.21875" style="2" customWidth="1"/>
+    <col min="9" max="1024" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:2" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1581,81 +1581,81 @@
     <row r="30" spans="1:2" ht="15.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:2" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:2" ht="9.85" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="H34" s="7" t="s">
+      <c r="D34" s="3"/>
+      <c r="H34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="C35" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="C36" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1676,90 +1676,90 @@
     <row r="53" spans="1:8" ht="25.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:8" ht="27.85" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="27">
-        <v>43466</v>
-      </c>
-      <c r="H57" s="7" t="s">
+      <c r="C57" s="22">
+        <v>43497</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="27">
-        <v>43467</v>
-      </c>
-      <c r="H58" s="7" t="s">
+      <c r="C58" s="22">
+        <v>43503</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="19">
         <v>2</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1775,159 +1775,159 @@
     <row r="72" spans="1:8" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:8" ht="15.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
+    <row r="75" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="7"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" s="7" t="s">
+      <c r="C77" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="C79" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="7" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="7" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
+    <row r="98" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="25" t="b">
+      <c r="C101" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="25">
         <v>0.5</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="25">
         <v>0.5</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1950,1566 +1950,1566 @@
     <row r="120" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:8" s="32" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="31"/>
-      <c r="C123" s="33"/>
-    </row>
-    <row r="124" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+    <row r="123" spans="1:8" s="27" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="26"/>
+      <c r="C123" s="28"/>
+    </row>
+    <row r="124" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H125" s="35"/>
+      <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="36"/>
-      <c r="D126" s="26" t="s">
+      <c r="C126" s="31"/>
+      <c r="D126" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F126" s="30">
-        <v>0</v>
-      </c>
-      <c r="H126" s="35"/>
+      <c r="F126" s="25">
+        <v>0</v>
+      </c>
+      <c r="H126" s="30"/>
     </row>
     <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="37"/>
-      <c r="D127" s="26" t="s">
+      <c r="C127" s="32"/>
+      <c r="D127" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="35" t="s">
+      <c r="H127" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H128" s="35" t="s">
+      <c r="H128" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="34"/>
-      <c r="D130" s="26" t="s">
+      <c r="C130" s="29"/>
+      <c r="D130" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E130" s="23" t="s">
+      <c r="E130" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F130" s="30">
+      <c r="F130" s="25">
         <v>0.15</v>
       </c>
-      <c r="H130" s="35" t="s">
+      <c r="H130" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H131" s="35" t="s">
+      <c r="H131" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="36"/>
-      <c r="D132" s="26" t="s">
+      <c r="C132" s="31"/>
+      <c r="D132" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H132" s="35" t="s">
+      <c r="H132" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H133" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="26" t="s">
+      <c r="C134" s="29"/>
+      <c r="D134" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H136" s="35"/>
+      <c r="H136" s="30"/>
     </row>
     <row r="137" spans="1:8" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="39" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="38" t="s">
+    <row r="138" spans="1:8" s="34" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="34"/>
-    </row>
-    <row r="139" spans="1:8" s="39" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="38" t="s">
+      <c r="C138" s="29"/>
+    </row>
+    <row r="139" spans="1:8" s="34" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="34"/>
-    </row>
-    <row r="140" spans="1:8" s="39" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="38" t="s">
+      <c r="C139" s="29"/>
+    </row>
+    <row r="140" spans="1:8" s="34" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="34"/>
-    </row>
-    <row r="141" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="38"/>
-      <c r="C141" s="40"/>
-    </row>
-    <row r="142" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="38"/>
-      <c r="C142" s="40"/>
-    </row>
-    <row r="143" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="38"/>
-      <c r="C143" s="40"/>
-    </row>
-    <row r="144" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="38"/>
-      <c r="C144" s="40"/>
-    </row>
-    <row r="145" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="38"/>
-      <c r="C145" s="40"/>
-    </row>
-    <row r="146" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="38"/>
-      <c r="C146" s="40"/>
-    </row>
-    <row r="147" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="38"/>
-      <c r="C147" s="40"/>
-    </row>
-    <row r="148" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="38"/>
-      <c r="C148" s="40"/>
-    </row>
-    <row r="149" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="38"/>
-      <c r="C149" s="40"/>
-    </row>
-    <row r="150" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="38"/>
-      <c r="C150" s="40"/>
-    </row>
-    <row r="151" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="38"/>
-      <c r="C151" s="40"/>
-    </row>
-    <row r="152" spans="1:3" s="39" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="38"/>
-      <c r="C152" s="40"/>
-    </row>
-    <row r="153" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="38"/>
-      <c r="C153" s="40"/>
-    </row>
-    <row r="154" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="38"/>
-      <c r="C154" s="40"/>
-    </row>
-    <row r="155" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="38"/>
-      <c r="C155" s="40"/>
-    </row>
-    <row r="156" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="38"/>
-      <c r="C156" s="40"/>
-    </row>
-    <row r="157" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="38"/>
-      <c r="C157" s="40"/>
-    </row>
-    <row r="158" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="38"/>
-      <c r="C158" s="40"/>
-    </row>
-    <row r="159" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="38"/>
-      <c r="C159" s="40"/>
-    </row>
-    <row r="160" spans="1:3" s="39" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="38"/>
-      <c r="C160" s="40"/>
-    </row>
-    <row r="161" spans="1:8" s="39" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="38" t="s">
+      <c r="C140" s="29"/>
+    </row>
+    <row r="141" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="33"/>
+      <c r="C141" s="35"/>
+    </row>
+    <row r="142" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="33"/>
+      <c r="C142" s="35"/>
+    </row>
+    <row r="143" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="33"/>
+      <c r="C143" s="35"/>
+    </row>
+    <row r="144" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="33"/>
+      <c r="C144" s="35"/>
+    </row>
+    <row r="145" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="33"/>
+      <c r="C145" s="35"/>
+    </row>
+    <row r="146" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="33"/>
+      <c r="C146" s="35"/>
+    </row>
+    <row r="147" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="33"/>
+      <c r="C147" s="35"/>
+    </row>
+    <row r="148" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="33"/>
+      <c r="C148" s="35"/>
+    </row>
+    <row r="149" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="33"/>
+      <c r="C149" s="35"/>
+    </row>
+    <row r="150" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="33"/>
+      <c r="C150" s="35"/>
+    </row>
+    <row r="151" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="33"/>
+      <c r="C151" s="35"/>
+    </row>
+    <row r="152" spans="1:3" s="34" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="33"/>
+      <c r="C152" s="35"/>
+    </row>
+    <row r="153" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="33"/>
+      <c r="C153" s="35"/>
+    </row>
+    <row r="154" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="33"/>
+      <c r="C154" s="35"/>
+    </row>
+    <row r="155" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="33"/>
+      <c r="C155" s="35"/>
+    </row>
+    <row r="156" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="33"/>
+      <c r="C156" s="35"/>
+    </row>
+    <row r="157" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="33"/>
+      <c r="C157" s="35"/>
+    </row>
+    <row r="158" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="33"/>
+      <c r="C158" s="35"/>
+    </row>
+    <row r="159" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="33"/>
+      <c r="C159" s="35"/>
+    </row>
+    <row r="160" spans="1:3" s="34" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="33"/>
+      <c r="C160" s="35"/>
+    </row>
+    <row r="161" spans="1:8" s="34" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C161" s="36"/>
-    </row>
-    <row r="162" spans="1:8" s="39" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="38" t="s">
+      <c r="C161" s="31"/>
+    </row>
+    <row r="162" spans="1:8" s="34" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C162" s="36"/>
-    </row>
-    <row r="163" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+      <c r="C162" s="31"/>
+    </row>
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F163" s="30">
-        <v>0</v>
-      </c>
-      <c r="H163" s="7" t="s">
+      <c r="F163" s="25">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E164" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F164" s="30">
+      <c r="F164" s="25">
         <v>0.75</v>
       </c>
-      <c r="H164" s="7" t="s">
+      <c r="H164" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="39" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="38"/>
-      <c r="C165" s="40"/>
-    </row>
-    <row r="166" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
+    <row r="165" spans="1:8" s="34" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="33"/>
+      <c r="C165" s="35"/>
+    </row>
+    <row r="166" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
     </row>
     <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B167" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C167" s="34"/>
-      <c r="D167" s="26" t="s">
+      <c r="C167" s="29"/>
+      <c r="D167" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F167" s="30">
+      <c r="F167" s="25">
         <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B168" s="21" t="s">
+      <c r="B168" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C168" s="34"/>
-      <c r="D168" s="26" t="s">
+      <c r="C168" s="29"/>
+      <c r="D168" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F168" s="30">
+      <c r="F168" s="25">
         <f>F183/0.95</f>
         <v>47.368421052631582</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B169" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C169" s="34"/>
-      <c r="D169" s="26" t="s">
+      <c r="C169" s="29"/>
+      <c r="D169" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E169" s="23" t="s">
+      <c r="E169" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F169" s="30">
+      <c r="F169" s="25">
         <v>1000</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H169" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="39" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:8" s="34" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B170" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C170" s="36"/>
-      <c r="D170" s="26" t="s">
+      <c r="C170" s="31"/>
+      <c r="D170" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F170" s="30">
-        <v>0</v>
-      </c>
-      <c r="H170" s="39" t="s">
+      <c r="F170" s="25">
+        <v>0</v>
+      </c>
+      <c r="H170" s="34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B171" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="34"/>
-      <c r="D171" s="26" t="s">
+      <c r="C171" s="29"/>
+      <c r="D171" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F171" s="30">
+      <c r="F171" s="25">
         <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C172" s="34"/>
-      <c r="D172" s="26" t="s">
+      <c r="C172" s="29"/>
+      <c r="D172" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F172" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="39" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="38"/>
-      <c r="C173" s="40"/>
-    </row>
-    <row r="174" spans="1:8" s="39" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="38"/>
-      <c r="C174" s="40"/>
-    </row>
-    <row r="175" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="38"/>
-      <c r="C175" s="40"/>
-    </row>
-    <row r="176" spans="1:8" s="39" customFormat="1" ht="11.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="38"/>
-      <c r="C176" s="40"/>
-    </row>
-    <row r="177" spans="1:8" s="39" customFormat="1" ht="11.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="38"/>
-      <c r="C177" s="40"/>
-    </row>
-    <row r="178" spans="1:8" s="39" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="38"/>
-      <c r="C178" s="40"/>
-    </row>
-    <row r="179" spans="1:8" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="38"/>
-      <c r="C179" s="40"/>
-    </row>
-    <row r="180" spans="1:8" s="39" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="38"/>
-      <c r="C180" s="40"/>
+      <c r="F172" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="34" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="33"/>
+      <c r="C173" s="35"/>
+    </row>
+    <row r="174" spans="1:8" s="34" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="33"/>
+      <c r="C174" s="35"/>
+    </row>
+    <row r="175" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="33"/>
+      <c r="C175" s="35"/>
+    </row>
+    <row r="176" spans="1:8" s="34" customFormat="1" ht="11.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="33"/>
+      <c r="C176" s="35"/>
+    </row>
+    <row r="177" spans="1:8" s="34" customFormat="1" ht="11.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="33"/>
+      <c r="C177" s="35"/>
+    </row>
+    <row r="178" spans="1:8" s="34" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="33"/>
+      <c r="C178" s="35"/>
+    </row>
+    <row r="179" spans="1:8" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="33"/>
+      <c r="C179" s="35"/>
+    </row>
+    <row r="180" spans="1:8" s="34" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="33"/>
+      <c r="C180" s="35"/>
     </row>
     <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C181" s="34"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="23" t="s">
+      <c r="C181" s="29"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F181" s="30">
+      <c r="F181" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B182" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D182" s="26" t="s">
+      <c r="D182" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F182" s="30">
+      <c r="F182" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B183" s="21" t="s">
+      <c r="B183" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D183" s="26" t="s">
+      <c r="D183" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F183" s="30">
+      <c r="F183" s="25">
         <v>45</v>
       </c>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="D184" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F184" s="30">
+      <c r="F184" s="25">
         <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B185" s="21" t="s">
+      <c r="B185" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="26" t="s">
+      <c r="D185" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F185" s="30">
+      <c r="F185" s="25">
         <v>10.08</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D186" s="26" t="s">
+      <c r="D186" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E186" s="23" t="s">
+      <c r="E186" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F186" s="30">
+      <c r="F186" s="25">
         <v>7.23</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B187" s="21" t="s">
+      <c r="B187" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D187" s="26" t="s">
+      <c r="D187" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F187" s="30">
+      <c r="F187" s="25">
         <v>9.36</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="39" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="38"/>
-      <c r="C188" s="40"/>
+    <row r="188" spans="1:8" s="34" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="33"/>
+      <c r="C188" s="35"/>
     </row>
     <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="38"/>
-      <c r="C192" s="40"/>
-    </row>
-    <row r="193" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="38"/>
-      <c r="C193" s="40"/>
-    </row>
-    <row r="194" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="38"/>
-      <c r="C194" s="40"/>
-    </row>
-    <row r="195" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="38"/>
-      <c r="C195" s="40"/>
-    </row>
-    <row r="196" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="38"/>
-      <c r="C196" s="40"/>
-    </row>
-    <row r="197" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="38"/>
-      <c r="C197" s="40"/>
-    </row>
-    <row r="198" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="38"/>
-      <c r="C198" s="40"/>
-    </row>
-    <row r="199" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="38"/>
-      <c r="C199" s="40"/>
-    </row>
-    <row r="200" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="38"/>
-      <c r="C200" s="40"/>
-    </row>
-    <row r="201" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="38"/>
-      <c r="C201" s="40"/>
-    </row>
-    <row r="202" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="38"/>
-      <c r="C202" s="40"/>
-    </row>
-    <row r="203" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="38"/>
-      <c r="C203" s="40"/>
-    </row>
-    <row r="204" spans="1:8" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="38"/>
-      <c r="C204" s="40"/>
-    </row>
-    <row r="205" spans="1:8" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
+    <row r="192" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="33"/>
+      <c r="C192" s="35"/>
+    </row>
+    <row r="193" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="33"/>
+      <c r="C193" s="35"/>
+    </row>
+    <row r="194" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="33"/>
+      <c r="C194" s="35"/>
+    </row>
+    <row r="195" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="33"/>
+      <c r="C195" s="35"/>
+    </row>
+    <row r="196" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="33"/>
+      <c r="C196" s="35"/>
+    </row>
+    <row r="197" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="33"/>
+      <c r="C197" s="35"/>
+    </row>
+    <row r="198" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="33"/>
+      <c r="C198" s="35"/>
+    </row>
+    <row r="199" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="33"/>
+      <c r="C199" s="35"/>
+    </row>
+    <row r="200" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="33"/>
+      <c r="C200" s="35"/>
+    </row>
+    <row r="201" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="33"/>
+      <c r="C201" s="35"/>
+    </row>
+    <row r="202" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="33"/>
+      <c r="C202" s="35"/>
+    </row>
+    <row r="203" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="33"/>
+      <c r="C203" s="35"/>
+    </row>
+    <row r="204" spans="1:8" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="33"/>
+      <c r="C204" s="35"/>
+    </row>
+    <row r="205" spans="1:8" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E205" s="23" t="s">
+      <c r="E205" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F205" s="41">
+      <c r="F205" s="36">
         <v>1000000</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="H205" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
+    <row r="206" spans="1:8" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E206" s="23" t="s">
+      <c r="E206" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F206" s="30">
-        <v>1</v>
-      </c>
-      <c r="H206" s="7" t="s">
+      <c r="F206" s="25">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E207" s="23" t="s">
+      <c r="E207" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F207" s="30">
+      <c r="F207" s="25">
         <v>400</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H207" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="38"/>
-      <c r="C209" s="40"/>
-    </row>
-    <row r="210" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="38"/>
-      <c r="C210" s="40"/>
-    </row>
-    <row r="211" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="38"/>
-      <c r="C211" s="40"/>
-    </row>
-    <row r="212" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="38"/>
-      <c r="C212" s="40"/>
-    </row>
-    <row r="213" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="38"/>
-      <c r="C213" s="40"/>
-    </row>
-    <row r="214" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="38"/>
-      <c r="C214" s="40"/>
-    </row>
-    <row r="215" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="38"/>
-      <c r="C215" s="40"/>
-    </row>
-    <row r="216" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="38"/>
-      <c r="C216" s="40"/>
-    </row>
-    <row r="217" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="38"/>
-      <c r="C217" s="40"/>
-    </row>
-    <row r="218" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="38"/>
-      <c r="C218" s="40"/>
-    </row>
-    <row r="219" spans="1:3" s="39" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="38"/>
-      <c r="C219" s="40"/>
-    </row>
-    <row r="220" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="38"/>
-      <c r="C220" s="40"/>
-    </row>
-    <row r="221" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="38"/>
-      <c r="C221" s="40"/>
-    </row>
-    <row r="222" spans="1:3" s="39" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="38"/>
-      <c r="C222" s="40"/>
-    </row>
-    <row r="223" spans="1:3" s="39" customFormat="1" ht="0.85" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="38"/>
-      <c r="C223" s="40"/>
-    </row>
-    <row r="224" spans="1:3" s="32" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="31"/>
-      <c r="C224" s="33"/>
-    </row>
-    <row r="225" spans="1:8" s="45" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="15" t="s">
+    <row r="209" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="33"/>
+      <c r="C209" s="35"/>
+    </row>
+    <row r="210" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="33"/>
+      <c r="C210" s="35"/>
+    </row>
+    <row r="211" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="33"/>
+      <c r="C211" s="35"/>
+    </row>
+    <row r="212" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="33"/>
+      <c r="C212" s="35"/>
+    </row>
+    <row r="213" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="33"/>
+      <c r="C213" s="35"/>
+    </row>
+    <row r="214" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="33"/>
+      <c r="C214" s="35"/>
+    </row>
+    <row r="215" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="33"/>
+      <c r="C215" s="35"/>
+    </row>
+    <row r="216" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="33"/>
+      <c r="C216" s="35"/>
+    </row>
+    <row r="217" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="33"/>
+      <c r="C217" s="35"/>
+    </row>
+    <row r="218" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="33"/>
+      <c r="C218" s="35"/>
+    </row>
+    <row r="219" spans="1:3" s="34" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="33"/>
+      <c r="C219" s="35"/>
+    </row>
+    <row r="220" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="33"/>
+      <c r="C220" s="35"/>
+    </row>
+    <row r="221" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="33"/>
+      <c r="C221" s="35"/>
+    </row>
+    <row r="222" spans="1:3" s="34" customFormat="1" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="33"/>
+      <c r="C222" s="35"/>
+    </row>
+    <row r="223" spans="1:3" s="34" customFormat="1" ht="0.85" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="33"/>
+      <c r="C223" s="35"/>
+    </row>
+    <row r="224" spans="1:3" s="27" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="26"/>
+      <c r="C224" s="28"/>
+    </row>
+    <row r="225" spans="1:8" s="40" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="C225" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D225" s="43" t="s">
+      <c r="D225" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E225" s="42" t="s">
+      <c r="E225" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F225" s="15" t="s">
+      <c r="F225" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G225" s="15" t="s">
+      <c r="G225" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H225" s="44"/>
+      <c r="H225" s="39"/>
     </row>
     <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B226" s="46" t="s">
+      <c r="B226" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C226" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D226" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E226" s="46" t="s">
+      <c r="C226" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D226" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="F226" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G226" s="25" t="b">
+      <c r="F226" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G226" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B227" s="46" t="s">
+      <c r="B227" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C227" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D227" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E227" s="46" t="s">
+      <c r="C227" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E227" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F227" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G227" s="25" t="b">
+      <c r="F227" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G227" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
-      <c r="B228" s="46" t="s">
+      <c r="A228" s="50"/>
+      <c r="B228" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C228" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D228" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E228" s="46" t="s">
+      <c r="C228" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D228" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E228" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F228" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G228" s="25" t="b">
+      <c r="F228" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G228" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
-      <c r="B229" s="46" t="s">
+      <c r="A229" s="50"/>
+      <c r="B229" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C229" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D229" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E229" s="46" t="s">
+      <c r="C229" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D229" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E229" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F229" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G229" s="25" t="b">
+      <c r="F229" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G229" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
-      <c r="B230" s="46" t="s">
+      <c r="A230" s="50"/>
+      <c r="B230" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C230" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D230" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E230" s="46" t="s">
+      <c r="C230" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D230" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E230" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F230" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G230" s="25" t="b">
+      <c r="F230" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G230" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2"/>
-      <c r="B231" s="46" t="s">
+      <c r="A231" s="50"/>
+      <c r="B231" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D231" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E231" s="46" t="s">
+      <c r="C231" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D231" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E231" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F231" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G231" s="25" t="b">
+      <c r="F231" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G231" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2"/>
-      <c r="B232" s="46" t="s">
+      <c r="A232" s="50"/>
+      <c r="B232" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C232" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D232" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E232" s="46" t="s">
+      <c r="C232" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D232" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E232" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="F232" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G232" s="25" t="b">
+      <c r="F232" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G232" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
-      <c r="B233" s="46" t="s">
+      <c r="A233" s="50"/>
+      <c r="B233" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C233" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D233" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E233" s="46" t="s">
+      <c r="C233" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D233" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E233" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F233" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G233" s="25" t="b">
+      <c r="F233" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G233" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
-      <c r="B234" s="46" t="s">
+      <c r="A234" s="50"/>
+      <c r="B234" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C234" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D234" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E234" s="46" t="s">
+      <c r="C234" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E234" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F234" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G234" s="25" t="b">
+      <c r="F234" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G234" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
-      <c r="B235" s="46" t="s">
+      <c r="A235" s="50"/>
+      <c r="B235" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C235" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D235" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E235" s="46" t="s">
+      <c r="C235" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D235" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E235" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F235" s="25">
-        <v>1</v>
-      </c>
-      <c r="G235" s="25">
+      <c r="F235" s="20">
+        <v>1</v>
+      </c>
+      <c r="G235" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
-      <c r="B236" s="46" t="s">
+      <c r="A236" s="50"/>
+      <c r="B236" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C236" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D236" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E236" s="46" t="s">
+      <c r="C236" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D236" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E236" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F236" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G236" s="25" t="b">
+      <c r="F236" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G236" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="2"/>
-      <c r="B237" s="46" t="s">
+      <c r="A237" s="50"/>
+      <c r="B237" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C237" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D237" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E237" s="46" t="s">
+      <c r="C237" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D237" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E237" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F237" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G237" s="25" t="b">
+      <c r="F237" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G237" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="2"/>
-      <c r="B238" s="46" t="s">
+      <c r="A238" s="50"/>
+      <c r="B238" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C238" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D238" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E238" s="46" t="s">
+      <c r="C238" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D238" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E238" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F238" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G238" s="25" t="b">
+      <c r="F238" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G238" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="2"/>
-      <c r="B239" s="46" t="s">
+      <c r="A239" s="50"/>
+      <c r="B239" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C239" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D239" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E239" s="46" t="s">
+      <c r="C239" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D239" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E239" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="F239" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G239" s="25" t="b">
+      <c r="F239" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G239" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="2"/>
-      <c r="B240" s="46" t="s">
+      <c r="A240" s="50"/>
+      <c r="B240" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C240" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D240" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E240" s="46" t="s">
+      <c r="C240" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D240" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E240" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F240" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G240" s="25" t="b">
+      <c r="F240" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G240" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="2"/>
-      <c r="B241" s="46" t="s">
+      <c r="A241" s="50"/>
+      <c r="B241" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C241" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D241" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E241" s="46" t="s">
+      <c r="C241" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D241" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E241" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F241" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G241" s="25" t="b">
+      <c r="F241" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G241" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="46" t="s">
+      <c r="B242" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C242" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D242" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E242" s="46" t="s">
+      <c r="C242" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D242" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E242" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F242" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G242" s="25" t="b">
+      <c r="F242" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G242" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="46" t="s">
+      <c r="B243" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C243" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D243" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E243" s="46" t="s">
+      <c r="C243" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D243" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E243" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="F243" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G243" s="25" t="b">
+      <c r="F243" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G243" s="20" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="46" t="s">
+      <c r="B244" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C244" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D244" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E244" s="46" t="s">
+      <c r="C244" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D244" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E244" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F244" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G244" s="25" t="b">
+      <c r="F244" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G244" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="B245" s="46" t="s">
+      <c r="B245" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C245" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D245" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E245" s="46" t="s">
+      <c r="C245" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D245" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E245" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F245" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G245" s="25" t="b">
+      <c r="F245" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G245" s="20" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1"/>
-      <c r="B246" s="46" t="s">
+      <c r="A246" s="51"/>
+      <c r="B246" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C246" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D246" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E246" s="46" t="s">
+      <c r="C246" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D246" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E246" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="F246" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G246" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H246" s="7" t="s">
+      <c r="F246" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G246" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="46" t="s">
+      <c r="B247" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C247" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D247" s="25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E247" s="46" t="s">
+      <c r="C247" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D247" s="20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E247" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F247" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G247" s="25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="38"/>
-      <c r="C248" s="40"/>
-    </row>
-    <row r="249" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="38"/>
-      <c r="C249" s="40"/>
-    </row>
-    <row r="250" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="38"/>
-      <c r="C250" s="40"/>
-    </row>
-    <row r="251" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="38"/>
-      <c r="C251" s="40"/>
-    </row>
-    <row r="252" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="38"/>
-      <c r="C252" s="40"/>
-    </row>
-    <row r="253" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="38"/>
-      <c r="C253" s="40"/>
-    </row>
-    <row r="254" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="38"/>
-      <c r="C254" s="40"/>
-    </row>
-    <row r="255" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="38"/>
-      <c r="C255" s="40"/>
-    </row>
-    <row r="256" spans="1:8" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="38"/>
-      <c r="C256" s="40"/>
-    </row>
-    <row r="257" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="38"/>
-      <c r="C257" s="40"/>
-    </row>
-    <row r="258" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="38"/>
-      <c r="C258" s="40"/>
-    </row>
-    <row r="259" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="38"/>
-      <c r="C259" s="40"/>
-    </row>
-    <row r="260" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="38"/>
-      <c r="C260" s="40"/>
-    </row>
-    <row r="261" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="38"/>
-      <c r="C261" s="40"/>
-    </row>
-    <row r="262" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="38"/>
-      <c r="C262" s="40"/>
-    </row>
-    <row r="263" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="38"/>
-      <c r="C263" s="40"/>
-    </row>
-    <row r="264" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="38"/>
-      <c r="C264" s="40"/>
-    </row>
-    <row r="265" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="38"/>
-      <c r="C265" s="40"/>
-    </row>
-    <row r="266" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="38"/>
-      <c r="C266" s="40"/>
-    </row>
-    <row r="267" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="38"/>
-      <c r="C267" s="40"/>
-    </row>
-    <row r="268" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="38"/>
-      <c r="C268" s="40"/>
-    </row>
-    <row r="269" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="38"/>
-      <c r="C269" s="40"/>
-    </row>
-    <row r="270" spans="1:3" s="39" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="38"/>
-      <c r="C270" s="40"/>
-    </row>
-    <row r="271" spans="1:3" s="39" customFormat="1" ht="11.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="38"/>
-      <c r="C271" s="40"/>
-    </row>
-    <row r="272" spans="1:3" s="39" customFormat="1" ht="11.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="38"/>
-      <c r="C272" s="40"/>
+      <c r="F247" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G247" s="20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="33"/>
+      <c r="C248" s="35"/>
+    </row>
+    <row r="249" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="33"/>
+      <c r="C249" s="35"/>
+    </row>
+    <row r="250" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="33"/>
+      <c r="C250" s="35"/>
+    </row>
+    <row r="251" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="33"/>
+      <c r="C251" s="35"/>
+    </row>
+    <row r="252" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="33"/>
+      <c r="C252" s="35"/>
+    </row>
+    <row r="253" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="33"/>
+      <c r="C253" s="35"/>
+    </row>
+    <row r="254" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="33"/>
+      <c r="C254" s="35"/>
+    </row>
+    <row r="255" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="33"/>
+      <c r="C255" s="35"/>
+    </row>
+    <row r="256" spans="1:8" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="33"/>
+      <c r="C256" s="35"/>
+    </row>
+    <row r="257" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="33"/>
+      <c r="C257" s="35"/>
+    </row>
+    <row r="258" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="33"/>
+      <c r="C258" s="35"/>
+    </row>
+    <row r="259" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="33"/>
+      <c r="C259" s="35"/>
+    </row>
+    <row r="260" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="33"/>
+      <c r="C260" s="35"/>
+    </row>
+    <row r="261" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="33"/>
+      <c r="C261" s="35"/>
+    </row>
+    <row r="262" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="33"/>
+      <c r="C262" s="35"/>
+    </row>
+    <row r="263" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="33"/>
+      <c r="C263" s="35"/>
+    </row>
+    <row r="264" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="33"/>
+      <c r="C264" s="35"/>
+    </row>
+    <row r="265" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="33"/>
+      <c r="C265" s="35"/>
+    </row>
+    <row r="266" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="33"/>
+      <c r="C266" s="35"/>
+    </row>
+    <row r="267" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="33"/>
+      <c r="C267" s="35"/>
+    </row>
+    <row r="268" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="33"/>
+      <c r="C268" s="35"/>
+    </row>
+    <row r="269" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="33"/>
+      <c r="C269" s="35"/>
+    </row>
+    <row r="270" spans="1:3" s="34" customFormat="1" ht="12.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="33"/>
+      <c r="C270" s="35"/>
+    </row>
+    <row r="271" spans="1:3" s="34" customFormat="1" ht="11.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="33"/>
+      <c r="C271" s="35"/>
+    </row>
+    <row r="272" spans="1:3" s="34" customFormat="1" ht="11.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="33"/>
+      <c r="C272" s="35"/>
     </row>
     <row r="273" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" spans="1:8" s="20" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="17" t="s">
+    <row r="274" spans="1:8" s="15" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B274" s="18"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
-      <c r="F274" s="18"/>
-      <c r="G274" s="18"/>
-      <c r="H274" s="18"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="13"/>
+      <c r="H274" s="13"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="23" t="s">
+      <c r="B275" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C275" s="30">
+      <c r="C275" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
+      <c r="A276" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B276" s="23" t="s">
+      <c r="B276" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C276" s="30">
-        <v>1</v>
-      </c>
-      <c r="H276" s="7" t="s">
+      <c r="C276" s="25">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B277" s="23" t="s">
+      <c r="B277" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C277" s="30">
-        <v>1</v>
-      </c>
-      <c r="H277" s="7" t="s">
+      <c r="C277" s="25">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B278" s="23" t="s">
+      <c r="B278" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C278" s="30">
+      <c r="C278" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3536,173 +3536,173 @@
     <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="301" spans="1:8" ht="11.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" spans="1:8" s="32" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="31"/>
-      <c r="C302" s="33"/>
+    <row r="302" spans="1:8" s="27" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="26"/>
+      <c r="C302" s="28"/>
     </row>
     <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="304" spans="1:8" s="45" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="15" t="s">
+    <row r="304" spans="1:8" s="40" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B304" s="44"/>
-      <c r="C304" s="47"/>
-      <c r="D304" s="44"/>
-      <c r="E304" s="44"/>
-      <c r="F304" s="44"/>
-      <c r="G304" s="44"/>
-      <c r="H304" s="44"/>
+      <c r="B304" s="39"/>
+      <c r="C304" s="42"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="39"/>
+      <c r="F304" s="39"/>
+      <c r="G304" s="39"/>
+      <c r="H304" s="39"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C305" s="42" t="s">
+      <c r="C305" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B306" s="48" t="s">
+      <c r="B306" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C306" s="49" t="b">
+      <c r="C306" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B307" s="48" t="s">
+      <c r="B307" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C307" s="49" t="b">
+      <c r="C307" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B308" s="48" t="s">
+      <c r="B308" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C308" s="49" t="b">
+      <c r="C308" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B309" s="48" t="s">
+      <c r="B309" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C309" s="49" t="b">
+      <c r="C309" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B310" s="48" t="s">
+      <c r="B310" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C310" s="49" t="b">
+      <c r="C310" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B311" s="48" t="s">
+      <c r="B311" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="C311" s="49" t="b">
+      <c r="C311" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B312" s="48" t="s">
+      <c r="B312" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C312" s="49" t="b">
+      <c r="C312" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B313" s="48" t="s">
+      <c r="B313" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="C313" s="49" t="b">
+      <c r="C313" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B314" s="48" t="s">
+      <c r="B314" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C314" s="49" t="b">
+      <c r="C314" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B315" s="48" t="s">
+      <c r="B315" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C315" s="49" t="b">
+      <c r="C315" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B316" s="48" t="s">
+      <c r="B316" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C316" s="49" t="b">
+      <c r="C316" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B317" s="48" t="s">
+      <c r="B317" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C317" s="49" t="b">
+      <c r="C317" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B318" s="48" t="s">
+      <c r="B318" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C318" s="49" t="b">
+      <c r="C318" s="44" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B319" s="48" t="s">
+      <c r="B319" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C319" s="49" t="b">
+      <c r="C319" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B320" s="48" t="s">
+      <c r="B320" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C320" s="49" t="b">
+      <c r="C320" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="6" t="s">
+      <c r="A325" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F330" s="6"/>
+      <c r="F330" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3967,23 +3967,23 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="45" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4064,964 +4064,964 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="45" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="51" t="b">
+      <c r="B2" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="51" t="b">
+      <c r="B3" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="51" t="b">
+      <c r="B4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="51" t="b">
+      <c r="B5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="51" t="b">
+      <c r="B6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="46" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="51" t="b">
+      <c r="B7" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="51" t="b">
+      <c r="B8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="51" t="b">
+      <c r="B9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="51" t="b">
+      <c r="B10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="51" t="b">
+      <c r="B11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="51" t="b">
+      <c r="B12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="46" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="51" t="b">
+      <c r="B13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="46" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N14" s="51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="51" t="b">
+      <c r="B14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="46" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="46" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="51" t="b">
+      <c r="B15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="51" t="b">
+      <c r="B16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
